--- a/biology/Zoologie/Eresus_albopictus/Eresus_albopictus.xlsx
+++ b/biology/Zoologie/Eresus_albopictus/Eresus_albopictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eresus albopictus est une espèce d'araignées aranéomorphes de la famille des Eresidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eresus albopictus est une espèce d'araignées aranéomorphes de la famille des Eresidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Sicile en Italie[1].
-Les spécimens d'Algérie et du Maroc, qui par le passé ont été identifiés comme Eresus albopictus, ont été confondus avec Loureedia sp.[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Sicile en Italie.
+Les spécimens d'Algérie et du Maroc, qui par le passé ont été identifiés comme Eresus albopictus, ont été confondus avec Loureedia sp.,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle subadulte holotype mesure 8,2 mm de long sur 5 mm et l'abdomen 12 mm de long sur 9 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle subadulte holotype mesure 8,2 mm de long sur 5 mm et l'abdomen 12 mm de long sur 9 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1873 : « Études arachnologiques. 2e Mémoire. III. Note sur les espèces européennes de la famille des Eresidae. » Annales de la Société Entomologique de France, sér. 5, vol. 3, p. 335-358 (texte intégral).</t>
         </is>
